--- a/reactive/throughput-ddra.xlsx
+++ b/reactive/throughput-ddra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739FD56-3217-48CE-91DE-CD38A75AC85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB76A63-D264-4469-9B04-A045C765B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="0" windowWidth="29844" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="36312" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -160,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +566,7 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.05</v>
       </c>
       <c r="E2">
@@ -648,7 +649,7 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.1</v>
       </c>
       <c r="E3">
@@ -731,7 +732,7 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.15</v>
       </c>
       <c r="E4">
@@ -814,7 +815,7 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.2</v>
       </c>
       <c r="E5">
@@ -897,7 +898,7 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.25</v>
       </c>
       <c r="E6">
@@ -980,7 +981,7 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.3</v>
       </c>
       <c r="E7">
@@ -1063,7 +1064,7 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.35</v>
       </c>
       <c r="E8">
@@ -1146,7 +1147,7 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.4</v>
       </c>
       <c r="E9">
@@ -1229,7 +1230,7 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.45</v>
       </c>
       <c r="E10">
@@ -1312,7 +1313,7 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.5</v>
       </c>
       <c r="E11">
@@ -1395,7 +1396,7 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="E12">
@@ -1478,7 +1479,7 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.6</v>
       </c>
       <c r="E13">
@@ -1561,7 +1562,7 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.65</v>
       </c>
       <c r="E14">
@@ -1644,7 +1645,7 @@
       <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.7</v>
       </c>
       <c r="E15">
@@ -1727,7 +1728,7 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.75</v>
       </c>
       <c r="E16">
@@ -1810,7 +1811,7 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.8</v>
       </c>
       <c r="E17">
@@ -1893,7 +1894,7 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.85</v>
       </c>
       <c r="E18">
@@ -1976,7 +1977,7 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.9</v>
       </c>
       <c r="E19">
@@ -2059,7 +2060,7 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.95</v>
       </c>
       <c r="E20">
@@ -2142,7 +2143,7 @@
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21">
@@ -2225,7 +2226,7 @@
       <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.05</v>
       </c>
       <c r="E22">
@@ -2308,7 +2309,7 @@
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.1</v>
       </c>
       <c r="E23">
@@ -2391,7 +2392,7 @@
       <c r="C24" t="s">
         <v>30</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.15</v>
       </c>
       <c r="E24">
@@ -2474,7 +2475,7 @@
       <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.2</v>
       </c>
       <c r="E25">
@@ -2557,7 +2558,7 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.25</v>
       </c>
       <c r="E26">
@@ -2640,7 +2641,7 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.3</v>
       </c>
       <c r="E27">
@@ -2723,7 +2724,7 @@
       <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.35</v>
       </c>
       <c r="E28">
@@ -2806,7 +2807,7 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.4</v>
       </c>
       <c r="E29">
@@ -2889,7 +2890,7 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.45</v>
       </c>
       <c r="E30">
@@ -2972,7 +2973,7 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.5</v>
       </c>
       <c r="E31">
@@ -3055,7 +3056,7 @@
       <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="E32">
@@ -3138,7 +3139,7 @@
       <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.6</v>
       </c>
       <c r="E33">
@@ -3221,7 +3222,7 @@
       <c r="C34" t="s">
         <v>30</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.65</v>
       </c>
       <c r="E34">
@@ -3304,7 +3305,7 @@
       <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0.7</v>
       </c>
       <c r="E35">
@@ -3387,7 +3388,7 @@
       <c r="C36" t="s">
         <v>30</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.75</v>
       </c>
       <c r="E36">
@@ -3470,7 +3471,7 @@
       <c r="C37" t="s">
         <v>30</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0.8</v>
       </c>
       <c r="E37">
@@ -3553,7 +3554,7 @@
       <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.85</v>
       </c>
       <c r="E38">
@@ -3636,7 +3637,7 @@
       <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>0.9</v>
       </c>
       <c r="E39">
@@ -3719,7 +3720,7 @@
       <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.95</v>
       </c>
       <c r="E40">
@@ -3802,7 +3803,7 @@
       <c r="C41" t="s">
         <v>30</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41">
@@ -3885,7 +3886,7 @@
       <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>0.05</v>
       </c>
       <c r="E42">
@@ -3968,7 +3969,7 @@
       <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>0.1</v>
       </c>
       <c r="E43">
@@ -4051,7 +4052,7 @@
       <c r="C44" t="s">
         <v>29</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0.15</v>
       </c>
       <c r="E44">
@@ -4134,7 +4135,7 @@
       <c r="C45" t="s">
         <v>29</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.2</v>
       </c>
       <c r="E45">
@@ -4217,7 +4218,7 @@
       <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0.25</v>
       </c>
       <c r="E46">
@@ -4300,7 +4301,7 @@
       <c r="C47" t="s">
         <v>29</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.3</v>
       </c>
       <c r="E47">
@@ -4383,7 +4384,7 @@
       <c r="C48" t="s">
         <v>29</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0.35</v>
       </c>
       <c r="E48">
@@ -4466,7 +4467,7 @@
       <c r="C49" t="s">
         <v>29</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.4</v>
       </c>
       <c r="E49">
@@ -4549,7 +4550,7 @@
       <c r="C50" t="s">
         <v>29</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.45</v>
       </c>
       <c r="E50">
@@ -4632,7 +4633,7 @@
       <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>0.5</v>
       </c>
       <c r="E51">
@@ -4715,7 +4716,7 @@
       <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="E52">
@@ -4798,7 +4799,7 @@
       <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>0.6</v>
       </c>
       <c r="E53">
@@ -4881,7 +4882,7 @@
       <c r="C54" t="s">
         <v>29</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>0.65</v>
       </c>
       <c r="E54">
@@ -4964,7 +4965,7 @@
       <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>0.7</v>
       </c>
       <c r="E55">
@@ -5047,7 +5048,7 @@
       <c r="C56" t="s">
         <v>29</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>0.75</v>
       </c>
       <c r="E56">
@@ -5130,7 +5131,7 @@
       <c r="C57" t="s">
         <v>29</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>0.8</v>
       </c>
       <c r="E57">
@@ -5213,7 +5214,7 @@
       <c r="C58" t="s">
         <v>29</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>0.85</v>
       </c>
       <c r="E58">
@@ -5296,7 +5297,7 @@
       <c r="C59" t="s">
         <v>29</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>0.9</v>
       </c>
       <c r="E59">
@@ -5379,7 +5380,7 @@
       <c r="C60" t="s">
         <v>29</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>0.95</v>
       </c>
       <c r="E60">
@@ -5462,7 +5463,7 @@
       <c r="C61" t="s">
         <v>29</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61">
@@ -5545,7 +5546,7 @@
       <c r="C62" t="s">
         <v>28</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>0.05</v>
       </c>
       <c r="E62">
@@ -5628,7 +5629,7 @@
       <c r="C63" t="s">
         <v>28</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>0.1</v>
       </c>
       <c r="E63">
@@ -5711,7 +5712,7 @@
       <c r="C64" t="s">
         <v>28</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>0.15</v>
       </c>
       <c r="E64">
@@ -5794,7 +5795,7 @@
       <c r="C65" t="s">
         <v>28</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>0.2</v>
       </c>
       <c r="E65">
@@ -5877,7 +5878,7 @@
       <c r="C66" t="s">
         <v>28</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>0.25</v>
       </c>
       <c r="E66">
@@ -5960,7 +5961,7 @@
       <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>0.3</v>
       </c>
       <c r="E67">
@@ -6043,7 +6044,7 @@
       <c r="C68" t="s">
         <v>28</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>0.35</v>
       </c>
       <c r="E68">
@@ -6126,7 +6127,7 @@
       <c r="C69" t="s">
         <v>28</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>0.4</v>
       </c>
       <c r="E69">
@@ -6209,7 +6210,7 @@
       <c r="C70" t="s">
         <v>28</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>0.45</v>
       </c>
       <c r="E70">
@@ -6292,7 +6293,7 @@
       <c r="C71" t="s">
         <v>28</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>0.5</v>
       </c>
       <c r="E71">
@@ -6375,7 +6376,7 @@
       <c r="C72" t="s">
         <v>28</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="E72">
@@ -6458,7 +6459,7 @@
       <c r="C73" t="s">
         <v>28</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>0.6</v>
       </c>
       <c r="E73">
@@ -6541,7 +6542,7 @@
       <c r="C74" t="s">
         <v>28</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>0.65</v>
       </c>
       <c r="E74">
@@ -6624,7 +6625,7 @@
       <c r="C75" t="s">
         <v>28</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>0.7</v>
       </c>
       <c r="E75">
@@ -6707,7 +6708,7 @@
       <c r="C76" t="s">
         <v>28</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>0.75</v>
       </c>
       <c r="E76">
@@ -6790,7 +6791,7 @@
       <c r="C77" t="s">
         <v>28</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>0.8</v>
       </c>
       <c r="E77">
@@ -6873,7 +6874,7 @@
       <c r="C78" t="s">
         <v>28</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>0.85</v>
       </c>
       <c r="E78">
@@ -6956,7 +6957,7 @@
       <c r="C79" t="s">
         <v>28</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>0.9</v>
       </c>
       <c r="E79">
@@ -7039,7 +7040,7 @@
       <c r="C80" t="s">
         <v>28</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>0.95</v>
       </c>
       <c r="E80">
@@ -7122,7 +7123,7 @@
       <c r="C81" t="s">
         <v>28</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="E81">
@@ -7205,7 +7206,7 @@
       <c r="C82" t="s">
         <v>31</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>0.05</v>
       </c>
       <c r="E82">
@@ -7288,7 +7289,7 @@
       <c r="C83" t="s">
         <v>31</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>0.1</v>
       </c>
       <c r="E83">
@@ -7371,7 +7372,7 @@
       <c r="C84" t="s">
         <v>31</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>0.15</v>
       </c>
       <c r="E84">
@@ -7454,7 +7455,7 @@
       <c r="C85" t="s">
         <v>31</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>0.2</v>
       </c>
       <c r="E85">
@@ -7537,7 +7538,7 @@
       <c r="C86" t="s">
         <v>31</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>0.25</v>
       </c>
       <c r="E86">
@@ -7620,7 +7621,7 @@
       <c r="C87" t="s">
         <v>31</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>0.3</v>
       </c>
       <c r="E87">
@@ -7703,7 +7704,7 @@
       <c r="C88" t="s">
         <v>31</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>0.35</v>
       </c>
       <c r="E88">
@@ -7786,7 +7787,7 @@
       <c r="C89" t="s">
         <v>31</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>0.4</v>
       </c>
       <c r="E89">
@@ -7869,7 +7870,7 @@
       <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>0.45</v>
       </c>
       <c r="E90">
@@ -7952,7 +7953,7 @@
       <c r="C91" t="s">
         <v>31</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>0.5</v>
       </c>
       <c r="E91">
@@ -8035,7 +8036,7 @@
       <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="E92">
@@ -8118,7 +8119,7 @@
       <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>0.6</v>
       </c>
       <c r="E93">
@@ -8201,7 +8202,7 @@
       <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>0.65</v>
       </c>
       <c r="E94">
@@ -8284,7 +8285,7 @@
       <c r="C95" t="s">
         <v>31</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>0.7</v>
       </c>
       <c r="E95">
@@ -8367,7 +8368,7 @@
       <c r="C96" t="s">
         <v>31</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>0.75</v>
       </c>
       <c r="E96">
@@ -8450,7 +8451,7 @@
       <c r="C97" t="s">
         <v>31</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>0.8</v>
       </c>
       <c r="E97">
@@ -8533,7 +8534,7 @@
       <c r="C98" t="s">
         <v>31</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>0.85</v>
       </c>
       <c r="E98">
@@ -8616,7 +8617,7 @@
       <c r="C99" t="s">
         <v>31</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>0.9</v>
       </c>
       <c r="E99">
@@ -8699,7 +8700,7 @@
       <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>0.95</v>
       </c>
       <c r="E100">
@@ -8782,7 +8783,7 @@
       <c r="C101" t="s">
         <v>31</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="E101">
@@ -8865,7 +8866,7 @@
       <c r="C102" t="s">
         <v>32</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>0.05</v>
       </c>
       <c r="E102">
@@ -8948,7 +8949,7 @@
       <c r="C103" t="s">
         <v>32</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>0.1</v>
       </c>
       <c r="E103">
@@ -9031,7 +9032,7 @@
       <c r="C104" t="s">
         <v>32</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>0.15</v>
       </c>
       <c r="E104">
@@ -9114,7 +9115,7 @@
       <c r="C105" t="s">
         <v>32</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>0.2</v>
       </c>
       <c r="E105">
@@ -9197,7 +9198,7 @@
       <c r="C106" t="s">
         <v>32</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>0.25</v>
       </c>
       <c r="E106">
@@ -9280,7 +9281,7 @@
       <c r="C107" t="s">
         <v>32</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>0.3</v>
       </c>
       <c r="E107">
@@ -9363,7 +9364,7 @@
       <c r="C108" t="s">
         <v>32</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>0.35</v>
       </c>
       <c r="E108">
@@ -9446,7 +9447,7 @@
       <c r="C109" t="s">
         <v>32</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>0.4</v>
       </c>
       <c r="E109">
@@ -9529,7 +9530,7 @@
       <c r="C110" t="s">
         <v>32</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>0.45</v>
       </c>
       <c r="E110">
@@ -9612,7 +9613,7 @@
       <c r="C111" t="s">
         <v>32</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>0.5</v>
       </c>
       <c r="E111">
@@ -9695,7 +9696,7 @@
       <c r="C112" t="s">
         <v>32</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="E112">
@@ -9778,7 +9779,7 @@
       <c r="C113" t="s">
         <v>32</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>0.6</v>
       </c>
       <c r="E113">
@@ -9861,7 +9862,7 @@
       <c r="C114" t="s">
         <v>32</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>0.65</v>
       </c>
       <c r="E114">
@@ -9944,7 +9945,7 @@
       <c r="C115" t="s">
         <v>32</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>0.7</v>
       </c>
       <c r="E115">
@@ -10027,7 +10028,7 @@
       <c r="C116" t="s">
         <v>32</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>0.75</v>
       </c>
       <c r="E116">
@@ -10110,7 +10111,7 @@
       <c r="C117" t="s">
         <v>32</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>0.8</v>
       </c>
       <c r="E117">
@@ -10193,7 +10194,7 @@
       <c r="C118" t="s">
         <v>32</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>0.85</v>
       </c>
       <c r="E118">
@@ -10276,7 +10277,7 @@
       <c r="C119" t="s">
         <v>32</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>0.9</v>
       </c>
       <c r="E119">
@@ -10359,7 +10360,7 @@
       <c r="C120" t="s">
         <v>32</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>0.95</v>
       </c>
       <c r="E120">
@@ -10442,7 +10443,7 @@
       <c r="C121" t="s">
         <v>32</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>1</v>
       </c>
       <c r="E121">
